--- a/AmsTest/test_Dashboard/PDFFileNameData/FileName.xlsx
+++ b/AmsTest/test_Dashboard/PDFFileNameData/FileName.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_DashboardWorking_02_November_2022_11_59AM.pdf</t>
+          <t>test_DashboardWorking_04_November_2022_04_40PM.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
